--- a/src/main/doc/考研MBA/2022年规划.xlsx
+++ b/src/main/doc/考研MBA/2022年规划.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\pma\src\main\doc\考研MBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FA1A8D-6D62-4E95-9339-66BBC4449E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CEBAB7-E130-4EE9-8037-F338892372ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="112">
   <si>
     <t>w1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -488,6 +488,28 @@
   <si>
     <t>1. onenote上面的总结。
 2. MBA 招生宣道会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 熟悉提前面试系统课截图</t>
+  </si>
+  <si>
+    <t>2. 提前面试英语课程学习</t>
+  </si>
+  <si>
+    <t>3. 简历PPT改造</t>
+  </si>
+  <si>
+    <t>5. 自我介绍练习</t>
+  </si>
+  <si>
+    <t>6. 面试提问练习</t>
+  </si>
+  <si>
+    <t>7. 面试设备准备（手机关闭网络，之链接wifi。微信等社交网络断网， 只保留面试软件的联网）</t>
+  </si>
+  <si>
+    <t>4. 可能被问道的问题整理（针对提前面试材料自我提问），软件翻译成英文形式。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,10 +667,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -949,74 +971,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10" t="s">
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10" t="s">
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10" t="s">
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10" t="s">
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10" t="s">
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10" t="s">
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10" t="s">
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
     </row>
     <row r="2" spans="1:50">
       <c r="A2" t="s">
@@ -1354,16 +1376,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC8B526-491A-4DE7-AE0B-2B6CA2134D3D}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="38.625" customWidth="1"/>
+    <col min="2" max="2" width="81.25" customWidth="1"/>
     <col min="3" max="3" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1389,7 +1411,7 @@
       <c r="B4" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1426,6 +1448,41 @@
     <row r="11" spans="1:3">
       <c r="B11" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1443,7 +1500,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2060,6 +2117,15 @@
       <c r="A16" t="s">
         <v>77</v>
       </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
       <c r="N16" s="2" t="s">
         <v>76</v>
       </c>

--- a/src/main/doc/考研MBA/2022年规划.xlsx
+++ b/src/main/doc/考研MBA/2022年规划.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\pma\src\main\doc\考研MBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CEBAB7-E130-4EE9-8037-F338892372ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F8D167-1CD7-43E4-B3C9-12C29E52D95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1240,16 +1240,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="AJ1:AN1"/>
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1378,7 +1378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC8B526-491A-4DE7-AE0B-2B6CA2134D3D}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1496,11 +1496,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C22BDAF-E938-4590-8A96-056C3316E41E}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2126,6 +2126,9 @@
       <c r="D16" t="s">
         <v>55</v>
       </c>
+      <c r="G16">
+        <v>23</v>
+      </c>
       <c r="N16" s="2" t="s">
         <v>76</v>
       </c>

--- a/src/main/doc/考研MBA/2022年规划.xlsx
+++ b/src/main/doc/考研MBA/2022年规划.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\pma\src\main\doc\考研MBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F8D167-1CD7-43E4-B3C9-12C29E52D95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1613DD4C-57E0-4227-A3AD-A5FB37B8F41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="129">
   <si>
     <t>w1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,10 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.zjusz.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上海交通大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -355,10 +351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AACSB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -372,10 +364,6 @@
   </si>
   <si>
     <t>https://mba.jnu.edu.cn/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.hitsz.edu.cn/index.html </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -510,6 +498,86 @@
   </si>
   <si>
     <t>4. 可能被问道的问题整理（针对提前面试材料自我提问），软件翻译成英文形式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AACSB，AMBA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.8/26.8/29.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华中师范大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华东师范大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mba.hit.edu.cn/index.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mba.zju.edu.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大作文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小作文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每题分值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望做对题数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺作对题数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -957,7 +1025,7 @@
   <dimension ref="A1:AX21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
@@ -1259,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E83595-0757-4FEE-A15D-161806F83030}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1270,20 +1338,46 @@
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="12" max="12" width="13.375" customWidth="1"/>
+    <col min="14" max="14" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>87</v>
+      </c>
+      <c r="H1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="8">
         <v>44513</v>
       </c>
@@ -1293,8 +1387,35 @@
       <c r="C2">
         <v>2015</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="H2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2">
+        <v>25</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <f>I2*J2</f>
+        <v>75</v>
+      </c>
+      <c r="L2">
+        <v>21</v>
+      </c>
+      <c r="M2">
+        <f>L2*J2</f>
+        <v>63</v>
+      </c>
+      <c r="N2">
+        <v>22</v>
+      </c>
+      <c r="O2">
+        <f>N2*J2</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="8">
         <v>44520</v>
       </c>
@@ -1304,8 +1425,35 @@
       <c r="C3">
         <v>2016</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="H3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3">
+        <v>30</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f>I3*J3</f>
+        <v>60</v>
+      </c>
+      <c r="L3">
+        <v>25</v>
+      </c>
+      <c r="M3">
+        <f>L3*J3</f>
+        <v>50</v>
+      </c>
+      <c r="N3">
+        <v>26</v>
+      </c>
+      <c r="O3">
+        <f>N3*J3</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="8">
         <v>44527</v>
       </c>
@@ -1315,8 +1463,20 @@
       <c r="C4">
         <v>2017</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="H4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4">
+        <v>35</v>
+      </c>
+      <c r="M4">
+        <v>27</v>
+      </c>
+      <c r="O4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="8">
         <v>44534</v>
       </c>
@@ -1326,8 +1486,20 @@
       <c r="C5">
         <v>2018</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="H5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5">
+        <v>30</v>
+      </c>
+      <c r="M5">
+        <v>22</v>
+      </c>
+      <c r="O5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="8">
         <v>44541</v>
       </c>
@@ -1337,8 +1509,20 @@
       <c r="C6">
         <v>2019</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="H6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>60</v>
+      </c>
+      <c r="O6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="8">
         <v>44548</v>
       </c>
@@ -1348,23 +1532,38 @@
       <c r="C7">
         <v>2020</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="H7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K7">
+        <f>SUM(K2:K6)</f>
+        <v>300</v>
+      </c>
+      <c r="M7" s="7">
+        <f>SUM(M2:M6)</f>
+        <v>222</v>
+      </c>
+      <c r="O7" s="7">
+        <f>SUM(O2:O6)</f>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:15">
       <c r="A9" s="8"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:15">
       <c r="A10" s="8"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:15">
       <c r="A11" s="9"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:15">
       <c r="A12" s="9"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:15">
       <c r="A13" s="9"/>
     </row>
   </sheetData>
@@ -1391,98 +1590,98 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.5">
       <c r="B4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1494,13 +1693,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C22BDAF-E938-4590-8A96-056C3316E41E}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1530,13 +1729,13 @@
         <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>26</v>
@@ -1551,13 +1750,13 @@
         <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="L1" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>28</v>
@@ -1566,7 +1765,7 @@
         <v>29</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1577,16 +1776,16 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2">
         <v>370</v>
       </c>
       <c r="G2">
-        <v>21.8</v>
+        <v>27.8</v>
       </c>
       <c r="H2" t="s">
         <v>33</v>
@@ -1595,10 +1794,10 @@
         <v>2.5</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L2">
         <v>185</v>
@@ -1607,21 +1806,21 @@
         <v>35</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
       </c>
       <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
         <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
       </c>
       <c r="F3">
         <v>650</v>
@@ -1636,10 +1835,10 @@
         <v>2.5</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L3">
         <v>175</v>
@@ -1648,21 +1847,21 @@
         <v>35</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
       <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
         <v>54</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
       </c>
       <c r="F4">
         <v>326</v>
@@ -1677,10 +1876,10 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L4">
         <v>210</v>
@@ -1689,21 +1888,21 @@
         <v>35</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
       </c>
       <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
         <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>55</v>
       </c>
       <c r="F5">
         <v>270</v>
@@ -1718,10 +1917,10 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L5">
         <v>210</v>
@@ -1730,21 +1929,21 @@
         <v>35</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>323</v>
@@ -1759,10 +1958,10 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L6">
         <v>175</v>
@@ -1771,39 +1970,39 @@
         <v>35</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7">
         <v>322</v>
       </c>
       <c r="G7">
-        <v>18.8</v>
+        <v>23.8</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L7">
         <v>175</v>
@@ -1812,18 +2011,18 @@
         <v>35</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="3">
         <v>211</v>
@@ -1842,10 +2041,10 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L8">
         <v>175</v>
@@ -1854,36 +2053,36 @@
         <v>35</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>19.8</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I9">
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L9">
         <v>175</v>
@@ -1892,27 +2091,27 @@
         <v>35</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10">
         <v>49</v>
       </c>
       <c r="G10">
-        <v>9.1999999999999993</v>
+        <v>16.8</v>
       </c>
       <c r="H10" t="s">
         <v>33</v>
@@ -1921,10 +2120,10 @@
         <v>2.5</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L10">
         <v>195</v>
@@ -1933,21 +2132,21 @@
         <v>35</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -1962,10 +2161,10 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L11">
         <v>180</v>
@@ -1974,24 +2173,24 @@
         <v>35</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12">
         <v>360</v>
@@ -2006,10 +2205,10 @@
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L12">
         <v>170</v>
@@ -2018,18 +2217,18 @@
         <v>35</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="3">
         <v>211</v>
@@ -2048,10 +2247,10 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L13">
         <v>170</v>
@@ -2060,18 +2259,18 @@
         <v>35</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="3">
         <v>211</v>
@@ -2090,10 +2289,10 @@
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L14">
         <v>175</v>
@@ -2102,12 +2301,12 @@
         <v>35</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
@@ -2115,22 +2314,39 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
       </c>
       <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
         <v>54</v>
       </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16">
-        <v>23</v>
+      <c r="G16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>76</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>111</v>
+      </c>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/doc/考研MBA/2022年规划.xlsx
+++ b/src/main/doc/考研MBA/2022年规划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\pma\src\main\doc\考研MBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1613DD4C-57E0-4227-A3AD-A5FB37B8F41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E95256-E99A-4C7B-BCD8-0753DF69F8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="132">
   <si>
     <t>w1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -578,6 +578,18 @@
   </si>
   <si>
     <t>冲刺作对题数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不报清华、不当炮灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保底做对题数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保底得分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1327,22 +1339,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E83595-0757-4FEE-A15D-161806F83030}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="12" max="12" width="13.375" customWidth="1"/>
-    <col min="14" max="14" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="12" max="12" width="14.375" customWidth="1"/>
+    <col min="14" max="14" width="13.375" customWidth="1"/>
+    <col min="16" max="16" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -1365,19 +1378,25 @@
         <v>117</v>
       </c>
       <c r="L1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>128</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17">
       <c r="A2" s="8">
         <v>44513</v>
       </c>
@@ -1401,21 +1420,28 @@
         <v>75</v>
       </c>
       <c r="L2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M2">
         <f>L2*J2</f>
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O2">
         <f>N2*J2</f>
+        <v>63</v>
+      </c>
+      <c r="P2">
+        <v>22</v>
+      </c>
+      <c r="Q2">
+        <f>P2*J2</f>
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:17">
       <c r="A3" s="8">
         <v>44520</v>
       </c>
@@ -1439,21 +1465,28 @@
         <v>60</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M3">
         <f>L3*J3</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O3">
         <f>N3*J3</f>
+        <v>50</v>
+      </c>
+      <c r="P3">
+        <v>26</v>
+      </c>
+      <c r="Q3">
+        <f>P3*J3</f>
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:17">
       <c r="A4" s="8">
         <v>44527</v>
       </c>
@@ -1470,13 +1503,16 @@
         <v>35</v>
       </c>
       <c r="M4">
+        <v>25</v>
+      </c>
+      <c r="O4">
         <v>27</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:17">
       <c r="A5" s="8">
         <v>44534</v>
       </c>
@@ -1493,13 +1529,16 @@
         <v>30</v>
       </c>
       <c r="M5">
+        <v>18</v>
+      </c>
+      <c r="O5">
         <v>22</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:17">
       <c r="A6" s="8">
         <v>44541</v>
       </c>
@@ -1516,13 +1555,16 @@
         <v>100</v>
       </c>
       <c r="M6">
+        <v>58</v>
+      </c>
+      <c r="O6">
         <v>60</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:17">
       <c r="A7" s="8">
         <v>44548</v>
       </c>
@@ -1541,30 +1583,39 @@
       </c>
       <c r="M7" s="7">
         <f>SUM(M2:M6)</f>
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="O7" s="7">
         <f>SUM(O2:O6)</f>
+        <v>222</v>
+      </c>
+      <c r="Q7" s="7">
+        <f>SUM(Q2:Q6)</f>
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:17">
       <c r="A8" s="8"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:17">
       <c r="A9" s="8"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:17">
       <c r="A10" s="8"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:17">
       <c r="A11" s="9"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:17">
       <c r="A12" s="9"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:17">
       <c r="A13" s="9"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>129</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1695,11 +1746,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C22BDAF-E938-4590-8A96-056C3316E41E}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1987,7 +2038,7 @@
         <v>54</v>
       </c>
       <c r="F7">
-        <v>322</v>
+        <v>470</v>
       </c>
       <c r="G7">
         <v>23.8</v>

--- a/src/main/doc/考研MBA/2022年规划.xlsx
+++ b/src/main/doc/考研MBA/2022年规划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\pma\src\main\doc\考研MBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E95256-E99A-4C7B-BCD8-0753DF69F8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B579599-8B4C-4934-B518-0563F5136269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -505,10 +505,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>23.8/26.8/29.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>华中师范大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -590,6 +586,10 @@
   </si>
   <si>
     <t>保底得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.8/28.8/31.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1320,16 +1320,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AS1"/>
+    <mergeCell ref="AT1:AX1"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AS1"/>
-    <mergeCell ref="AT1:AX1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1366,34 +1366,34 @@
         <v>87</v>
       </c>
       <c r="H1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" t="s">
         <v>116</v>
       </c>
-      <c r="I1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" t="s">
         <v>124</v>
       </c>
-      <c r="K1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="N1" t="s">
-        <v>125</v>
-      </c>
       <c r="O1" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1407,7 +1407,7 @@
         <v>2015</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I2">
         <v>25</v>
@@ -1452,7 +1452,7 @@
         <v>2016</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I3">
         <v>30</v>
@@ -1497,7 +1497,7 @@
         <v>2017</v>
       </c>
       <c r="H4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K4">
         <v>35</v>
@@ -1523,7 +1523,7 @@
         <v>2018</v>
       </c>
       <c r="H5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K5">
         <v>30</v>
@@ -1549,7 +1549,7 @@
         <v>2019</v>
       </c>
       <c r="H6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K6">
         <v>100</v>
@@ -1575,7 +1575,7 @@
         <v>2020</v>
       </c>
       <c r="H7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K7">
         <f>SUM(K2:K6)</f>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1628,8 +1628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC8B526-491A-4DE7-AE0B-2B6CA2134D3D}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1746,11 +1746,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C22BDAF-E938-4590-8A96-056C3316E41E}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1857,7 +1857,7 @@
         <v>35</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2377,7 +2377,7 @@
         <v>54</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="H16" t="s">
         <v>33</v>
@@ -2386,18 +2386,18 @@
         <v>3</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/doc/考研MBA/2022年规划.xlsx
+++ b/src/main/doc/考研MBA/2022年规划.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\pma\src\main\doc\考研MBA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\git_workspaces\pma\src\main\doc\考研MBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B579599-8B4C-4934-B518-0563F5136269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB2061F-E4CA-419A-A4D5-D82108227C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
     <sheet name="提前面试计划" sheetId="2" r:id="rId3"/>
     <sheet name="报考院校信息" sheetId="3" r:id="rId4"/>
+    <sheet name="真题计划" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">报考院校信息!$A$1:$N$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">真题计划!$A$1:$C$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="165">
   <si>
     <t>w1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -590,6 +592,134 @@
   </si>
   <si>
     <t>25.8/28.8/31.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次模拟考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次模拟考试解读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次模拟考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次模拟考试解读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六</t>
+  </si>
+  <si>
+    <t>周日</t>
+  </si>
+  <si>
+    <t>周一</t>
+  </si>
+  <si>
+    <t>周二</t>
+  </si>
+  <si>
+    <t>2015年真题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年真题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年真题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年真题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年真题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年真题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年真题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年真题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年真题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年真题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年真题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年真题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年真题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年真题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年真题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年真题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年真题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年真题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014~2016真题错题回顾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017~2019真题错题回顾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020~2022真题错题回顾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式、原理回顾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,8 +727,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="[$-804]aaa;@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -689,7 +820,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -723,13 +854,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
@@ -749,6 +895,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1043,82 +1192,82 @@
       <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="3" max="50" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.08203125" customWidth="1"/>
+    <col min="3" max="50" width="3.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11" t="s">
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11" t="s">
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11" t="s">
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11" t="s">
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11" t="s">
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11" t="s">
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11" t="s">
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
+      <c r="AU1" s="14"/>
+      <c r="AV1" s="14"/>
+      <c r="AW1" s="14"/>
+      <c r="AX1" s="14"/>
     </row>
     <row r="2" spans="1:50">
       <c r="A2" t="s">
@@ -1320,16 +1469,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="AJ1:AN1"/>
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1339,19 +1488,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E83595-0757-4FEE-A15D-161806F83030}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="12" max="12" width="14.375" customWidth="1"/>
-    <col min="14" max="14" width="13.375" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
     <col min="16" max="16" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1612,9 +1761,36 @@
     <row r="13" spans="1:17">
       <c r="A13" s="9"/>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:11">
       <c r="C18" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11">
+      <c r="G32">
+        <v>23.8</v>
+      </c>
+      <c r="J32">
+        <f>G32/3</f>
+        <v>7.9333333333333336</v>
+      </c>
+      <c r="K32">
+        <f>J32/12</f>
+        <v>0.66111111111111109</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9">
+      <c r="G33">
+        <f>G32*0.4</f>
+        <v>9.5200000000000014</v>
+      </c>
+      <c r="H33">
+        <f>G32*0.4</f>
+        <v>9.5200000000000014</v>
+      </c>
+      <c r="I33">
+        <f>G32*0.2</f>
+        <v>4.7600000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -1628,15 +1804,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC8B526-491A-4DE7-AE0B-2B6CA2134D3D}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="81.25" customWidth="1"/>
-    <col min="3" max="3" width="26.875" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1657,7 +1833,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.5">
+    <row r="4" spans="1:3" ht="28">
       <c r="B4" t="s">
         <v>93</v>
       </c>
@@ -1747,32 +1923,32 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.875" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="31.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.125" customWidth="1"/>
+    <col min="15" max="15" width="30.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.25" thickBot="1">
+    <row r="1" spans="1:15" ht="17" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -2423,4 +2599,324 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
   <legacyDrawing r:id="rId16"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485A312A-81E7-4007-ADF9-12D81992BDF1}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" customWidth="1"/>
+    <col min="3" max="3" width="22.08203125" customWidth="1"/>
+    <col min="4" max="4" width="27.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="12">
+        <v>44828</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12">
+        <v>44829</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="12">
+        <v>44835</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="12">
+        <v>44836</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="12">
+        <v>44837</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="12">
+        <v>44838</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="12">
+        <v>44849</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="12">
+        <v>44850</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="12">
+        <v>44856</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="12">
+        <v>44857</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="12">
+        <v>44863</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="12">
+        <v>44864</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="12">
+        <v>44870</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="12">
+        <v>44871</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="12">
+        <v>44877</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="12">
+        <v>44878</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="12">
+        <v>44884</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="12">
+        <v>44885</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="12">
+        <v>44891</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="12">
+        <v>44892</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="12">
+        <v>44898</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="12">
+        <v>44899</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="12">
+        <v>44905</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="12">
+        <v>44906</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="12">
+        <v>44912</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="12">
+        <v>44913</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C27" xr:uid="{485A312A-81E7-4007-ADF9-12D81992BDF1}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>